--- a/LubanConfig/MiniTemplate/Datas/item.xlsx
+++ b/LubanConfig/MiniTemplate/Datas/item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Levi\Mota\LubanConfig\MiniTemplate\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7387B638-5C9D-4B98-A8E9-055D22FF146A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2958E706-5353-490C-A06C-CBF3560B2021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1395" yWindow="2670" windowWidth="21585" windowHeight="10365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="60">
   <si>
     <t>##var</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -256,6 +256,14 @@
   </si>
   <si>
     <t>喝到一瓶高級傷藥，生命+400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鐵劍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>獲得鐵劍，攻擊+10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -657,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1045,6 +1053,29 @@
         <v>57</v>
       </c>
     </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="9">
+        <v>10</v>
+      </c>
+      <c r="O14" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="G1:H1"/>

--- a/LubanConfig/MiniTemplate/Datas/item.xlsx
+++ b/LubanConfig/MiniTemplate/Datas/item.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Levi\Mota\LubanConfig\MiniTemplate\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2958E706-5353-490C-A06C-CBF3560B2021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F5EC07-7AAB-4EF6-818B-B2B152F4A4E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="2670" windowWidth="21585" windowHeight="10365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7140" yWindow="3165" windowWidth="21585" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="99">
   <si>
     <t>##var</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -263,7 +272,161 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>獲得鐵劍，攻擊+10</t>
+    <t>Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得到小飛羽，等級+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小飛羽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凡骨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深紅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天靈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解鎖凡骨劍技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解鎖流石劍技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解鎖深紅劍技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解鎖天靈劍技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解鎖皇者劍技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凡骨,劍技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流石,劍技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深紅,劍技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天靈,劍技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇者,劍技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鏡膜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>結晶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鏡膜,盾術</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>結晶,盾術</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反射,盾術</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解鎖鏡膜盾術</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解鎖賢者結界盾術</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解鎖精靈罩盾術</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解鎖結晶盾術</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解鎖反射盾術</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精靈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>賢者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精靈,盾術</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>賢者,盾術</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>綠寶石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Breath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃寶石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自動使用</t>
+  </si>
+  <si>
+    <t>裝備上一把鐵劍，攻擊+10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寶物</t>
+  </si>
+  <si>
+    <t>寶物</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -357,7 +520,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
@@ -374,6 +537,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -665,10 +830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="H7" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -679,6 +844,7 @@
     <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.28515625" customWidth="1"/>
     <col min="10" max="10" width="18.140625" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="28.42578125" customWidth="1"/>
     <col min="15" max="15" width="46" customWidth="1"/>
     <col min="16" max="16" width="27.7109375" customWidth="1"/>
@@ -703,18 +869,18 @@
       <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10" t="s">
+      <c r="H1" s="12"/>
+      <c r="I1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10" t="s">
+      <c r="J1" s="12"/>
+      <c r="K1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="10"/>
+      <c r="L1" s="12"/>
       <c r="M1" s="2" t="s">
         <v>21</v>
       </c>
@@ -747,18 +913,18 @@
       <c r="F2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="12" t="s">
+      <c r="H2" s="13"/>
+      <c r="I2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="11" t="s">
+      <c r="J2" s="14"/>
+      <c r="K2" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="11"/>
+      <c r="L2" s="13"/>
       <c r="M2" s="5" t="s">
         <v>4</v>
       </c>
@@ -1055,10 +1221,10 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>33</v>
@@ -1067,14 +1233,411 @@
         <v>44</v>
       </c>
       <c r="G14" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="9">
+        <v>1</v>
+      </c>
+      <c r="O14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H15" s="9">
+        <v>40</v>
+      </c>
+      <c r="O15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H16" s="9">
+        <v>40</v>
+      </c>
+      <c r="O16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H18" s="9">
         <v>10</v>
       </c>
-      <c r="O14" t="s">
-        <v>59</v>
-      </c>
+      <c r="O18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" s="10">
+        <v>5</v>
+      </c>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="P20" s="6"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" s="9">
+        <v>5</v>
+      </c>
+      <c r="M21" t="s">
+        <v>73</v>
+      </c>
+      <c r="O21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H22" s="9">
+        <v>5</v>
+      </c>
+      <c r="M22" t="s">
+        <v>74</v>
+      </c>
+      <c r="O22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23" s="9">
+        <v>5</v>
+      </c>
+      <c r="M23" t="s">
+        <v>75</v>
+      </c>
+      <c r="O23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H24" s="11">
+        <v>5</v>
+      </c>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P24" s="8"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H26" s="10">
+        <v>5</v>
+      </c>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="P26" s="6"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H27" s="9">
+        <v>5</v>
+      </c>
+      <c r="M27" t="s">
+        <v>81</v>
+      </c>
+      <c r="O27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H28" s="9">
+        <v>5</v>
+      </c>
+      <c r="M28" t="s">
+        <v>82</v>
+      </c>
+      <c r="O28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H29" s="9">
+        <v>5</v>
+      </c>
+      <c r="M29" t="s">
+        <v>90</v>
+      </c>
+      <c r="O29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H30" s="11">
+        <v>5</v>
+      </c>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="P30" s="8"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/LubanConfig/MiniTemplate/Datas/item.xlsx
+++ b/LubanConfig/MiniTemplate/Datas/item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Levi\Mota\LubanConfig\MiniTemplate\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F5EC07-7AAB-4EF6-818B-B2B152F4A4E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02FB3FA-90D8-4F87-90A1-7C6F4D5C416C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7140" yWindow="3165" windowWidth="21585" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -29,12 +29,15 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="149">
   <si>
     <t>##var</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -427,6 +430,202 @@
   </si>
   <si>
     <t>寶物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經驗藥水</t>
+  </si>
+  <si>
+    <t>經驗藥水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得到一顆綠寶石，回復氣息一格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喝到一瓶經驗藥水，經驗+5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神奇藥水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喝到一瓶神奇藥水，加強了力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得到一顆黃寶石，提升了專注力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鋼劍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神聖劍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇者劍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裝備上一把勇者劍，攻擊+100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裝備上一把神聖劍，攻擊+55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裝備上一把鋼劍，攻擊+20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃銅劍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裝備上一把黃銅劍，攻擊+32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鐵盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裝備上一把鐵盾，防禦+10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鋼盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裝備上一把鋼盾，防禦+20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裝備上一把黃銅盾，防禦+32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裝備上一把神聖盾，防禦+55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裝備上一把勇者盾，防禦+100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃銅盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神聖盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇者盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聖水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鋤頭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寶石鋤頭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大金幣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聖劍之證</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解毒劑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火酒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手動使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用解毒劑，中毒狀態去除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用火酒，衰落狀態去除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按下O可以使眼前任何怪物變成史萊姆(魔王、幹部無效)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喝到一瓶聖水，生命大幅成長</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>給需要的人，或許會對關卡進展有幫助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得到一顆大金幣，金錢+200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鑲有寶石的高級鋤頭，寶石散發著神秘又璀璨的光澤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永恆冰結晶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以永久移除熔岩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聖劍之證</t>
+  </si>
+  <si>
+    <t>解毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Atkcritical</t>
+  </si>
+  <si>
+    <t>Atkcritical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defcritical</t>
+  </si>
+  <si>
+    <t>Defcritical</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -830,14 +1029,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P38"/>
+  <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H7" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.140625" customWidth="1"/>
@@ -846,7 +1046,7 @@
     <col min="10" max="10" width="18.140625" customWidth="1"/>
     <col min="13" max="13" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="28.42578125" customWidth="1"/>
-    <col min="15" max="15" width="46" customWidth="1"/>
+    <col min="15" max="15" width="59.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1262,7 +1462,7 @@
         <v>40</v>
       </c>
       <c r="O15" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1278,30 +1478,44 @@
       <c r="F16" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="H16" s="9">
-        <v>40</v>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="M16" t="s">
+        <v>94</v>
       </c>
       <c r="O16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="H17" s="9">
+        <v>5</v>
+      </c>
+      <c r="O17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>33</v>
@@ -1309,335 +1523,879 @@
       <c r="F18" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="H18" s="9">
-        <v>10</v>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="M18" t="s">
+        <v>104</v>
       </c>
       <c r="O18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>132</v>
+      </c>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6" t="s">
+      <c r="I19" t="s">
+        <v>53</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="O19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="O20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="O21" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="H22" s="9">
+        <v>200</v>
+      </c>
+      <c r="O22" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="M23" t="s">
+        <v>143</v>
+      </c>
+      <c r="O23" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="M24" t="s">
+        <v>144</v>
+      </c>
+      <c r="O24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="M25" t="s">
+        <v>131</v>
+      </c>
+      <c r="O25" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B26" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="M26" t="s">
+        <v>141</v>
+      </c>
+      <c r="O26" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H29" s="10">
+        <v>10</v>
+      </c>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H30" s="9">
+        <v>20</v>
+      </c>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H31" s="9">
+        <v>32</v>
+      </c>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H32" s="9">
+        <v>55</v>
+      </c>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H33" s="11">
+        <v>100</v>
+      </c>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H35" s="10">
+        <v>10</v>
+      </c>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D36" s="7"/>
+      <c r="E36" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H36" s="9">
+        <v>20</v>
+      </c>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D37" s="7"/>
+      <c r="E37" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H37" s="9">
+        <v>32</v>
+      </c>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D38" s="7"/>
+      <c r="E38" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H38" s="9">
+        <v>55</v>
+      </c>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="B39" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H39" s="11">
+        <v>100</v>
+      </c>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C42" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="10" t="s">
+      <c r="D42" s="6"/>
+      <c r="E42" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="F20" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G20" s="10" t="s">
+      <c r="F42" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G42" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H42" s="10">
         <v>5</v>
       </c>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6" t="s">
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6" t="s">
+      <c r="N42" s="6"/>
+      <c r="O42" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="P20" s="6"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="P42" s="6"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>63</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C43" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E43" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G21" s="9" t="s">
+      <c r="F43" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G43" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H43" s="9">
         <v>5</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M43" t="s">
         <v>73</v>
       </c>
-      <c r="O21" t="s">
+      <c r="O43" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>64</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C44" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E44" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F22" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G22" s="9" t="s">
+      <c r="F44" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G44" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H44" s="9">
         <v>5</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M44" t="s">
         <v>74</v>
       </c>
-      <c r="O22" t="s">
+      <c r="O44" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>65</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C45" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E45" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F45" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G45" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H45" s="9">
         <v>5</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M45" t="s">
         <v>75</v>
       </c>
-      <c r="O23" t="s">
+      <c r="O45" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8" t="s">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C46" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="11" t="s">
+      <c r="D46" s="8"/>
+      <c r="E46" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="F24" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="G24" s="11" t="s">
+      <c r="F46" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G46" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H46" s="11">
         <v>5</v>
       </c>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8" t="s">
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8" t="s">
+      <c r="N46" s="8"/>
+      <c r="O46" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="P24" s="8"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6" t="s">
+      <c r="P46" s="8"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C48" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="10" t="s">
+      <c r="D48" s="6"/>
+      <c r="E48" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="F26" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G26" s="10" t="s">
+      <c r="F48" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G48" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H48" s="10">
         <v>5</v>
       </c>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6" t="s">
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6" t="s">
+      <c r="N48" s="6"/>
+      <c r="O48" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="P26" s="6"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" t="s">
+      <c r="P48" s="6"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="7"/>
+      <c r="B49" t="s">
         <v>78</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C49" t="s">
         <v>78</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E49" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F27" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G27" s="9" t="s">
+      <c r="F49" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G49" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H49" s="9">
         <v>5</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M49" t="s">
         <v>81</v>
       </c>
-      <c r="O27" t="s">
+      <c r="O49" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
         <v>79</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C50" t="s">
         <v>79</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E50" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F28" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G28" s="9" t="s">
+      <c r="F50" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G50" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H50" s="9">
         <v>5</v>
       </c>
-      <c r="M28" t="s">
+      <c r="M50" t="s">
         <v>82</v>
       </c>
-      <c r="O28" t="s">
+      <c r="O50" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
         <v>88</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C51" t="s">
         <v>88</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E51" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F29" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G29" s="9" t="s">
+      <c r="F51" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G51" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H51" s="9">
         <v>5</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M51" t="s">
         <v>90</v>
       </c>
-      <c r="O29" t="s">
+      <c r="O51" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8" t="s">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C52" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="11" t="s">
+      <c r="D52" s="8"/>
+      <c r="E52" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="F30" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="G30" s="11" t="s">
+      <c r="F52" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G52" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="H30" s="11">
+      <c r="H52" s="11">
         <v>5</v>
       </c>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8" t="s">
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8" t="s">
+      <c r="N52" s="8"/>
+      <c r="O52" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="P30" s="8"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
+      <c r="P52" s="8"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" s="7"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" s="7"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" s="7"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" s="7"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="6">
